--- a/vaktsineerimine.xlsx
+++ b/vaktsineerimine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauno\Desktop\Ülikool 15.04\II semester\Sissejuhatus andmeteadusse\Projekt_vaktsineerimisega_hõlmatus\andmestikud_sjuh.andmeteadus_25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FAEEF8-A8A3-497E-A2C8-276AF4DCC24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5C3D4-2FB0-4608-B573-15570BCA6D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NH11" sheetId="1" r:id="rId1"/>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/vaktsineerimine.xlsx
+++ b/vaktsineerimine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauno\Desktop\Ülikool 15.04\II semester\Sissejuhatus andmeteadusse\Projekt_vaktsineerimisega_hõlmatus\andmestikud_sjuh.andmeteadus_25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5C3D4-2FB0-4608-B573-15570BCA6D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660B9FE5-07EA-40D1-82CA-455C496FC886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30960" yWindow="2160" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NH11" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,6 @@
   </si>
   <si>
     <t>Maakond</t>
-  </si>
-  <si>
-    <t>Difteeria</t>
-  </si>
-  <si>
-    <t>Teetanus</t>
-  </si>
-  <si>
-    <t>Läkaköha</t>
   </si>
   <si>
     <t>Poliomüeliit</t>
@@ -118,6 +109,15 @@
   </si>
   <si>
     <t>Võru maakond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difteeria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teetanus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Läkaköha </t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -439,37 +439,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
@@ -477,7 +477,7 @@
         <v>2004</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>97.3</v>
@@ -518,7 +518,7 @@
         <v>2004</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>96.4</v>
@@ -559,7 +559,7 @@
         <v>2004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>94.8</v>
@@ -600,7 +600,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>98.8</v>
@@ -641,7 +641,7 @@
         <v>2004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>99.1</v>
@@ -682,7 +682,7 @@
         <v>2004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>98.7</v>
@@ -723,7 +723,7 @@
         <v>2004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>99.1</v>
@@ -764,7 +764,7 @@
         <v>2004</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>98.7</v>
@@ -805,7 +805,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>99.2</v>
@@ -846,7 +846,7 @@
         <v>2004</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>98.2</v>
@@ -887,7 +887,7 @@
         <v>2004</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>97.4</v>
@@ -928,7 +928,7 @@
         <v>2004</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>98.6</v>
@@ -969,7 +969,7 @@
         <v>2004</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>98.1</v>
@@ -1010,7 +1010,7 @@
         <v>2004</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>99.2</v>
@@ -1051,7 +1051,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
         <v>99</v>
@@ -1092,7 +1092,7 @@
         <v>2004</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
         <v>98.7</v>
@@ -1133,7 +1133,7 @@
         <v>2004</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>98.5</v>
@@ -1174,7 +1174,7 @@
         <v>2004</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <v>99.7</v>
@@ -1215,7 +1215,7 @@
         <v>2005</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>97.3</v>
@@ -1256,7 +1256,7 @@
         <v>2005</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
         <v>97.4</v>
@@ -1297,7 +1297,7 @@
         <v>2005</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <v>95.3</v>
@@ -1338,7 +1338,7 @@
         <v>2005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <v>98.7</v>
@@ -1379,7 +1379,7 @@
         <v>2005</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
         <v>98.5</v>
@@ -1420,7 +1420,7 @@
         <v>2005</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
         <v>98.5</v>
@@ -1461,7 +1461,7 @@
         <v>2005</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <v>98.1</v>
@@ -1502,7 +1502,7 @@
         <v>2005</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>98.5</v>
@@ -1543,7 +1543,7 @@
         <v>2005</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>96.4</v>
@@ -1584,7 +1584,7 @@
         <v>2005</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>96.9</v>
@@ -1625,7 +1625,7 @@
         <v>2005</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2">
         <v>97.4</v>
@@ -1666,7 +1666,7 @@
         <v>2005</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2">
         <v>98.8</v>
@@ -1707,7 +1707,7 @@
         <v>2005</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2">
         <v>100</v>
@@ -1748,7 +1748,7 @@
         <v>2005</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2">
         <v>98.6</v>
@@ -1789,7 +1789,7 @@
         <v>2005</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C34" s="2">
         <v>98.9</v>
@@ -1830,7 +1830,7 @@
         <v>2005</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2">
         <v>99.3</v>
@@ -1871,7 +1871,7 @@
         <v>2005</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2">
         <v>98.6</v>
@@ -1912,7 +1912,7 @@
         <v>2005</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2">
         <v>97.8</v>
@@ -1953,7 +1953,7 @@
         <v>2006</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2">
         <v>97.4</v>
@@ -1994,7 +1994,7 @@
         <v>2006</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2">
         <v>96.9</v>
@@ -2035,7 +2035,7 @@
         <v>2006</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2">
         <v>95.7</v>
@@ -2076,7 +2076,7 @@
         <v>2006</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2">
         <v>96.8</v>
@@ -2117,7 +2117,7 @@
         <v>2006</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2">
         <v>98.6</v>
@@ -2158,7 +2158,7 @@
         <v>2006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2">
         <v>98.4</v>
@@ -2199,7 +2199,7 @@
         <v>2006</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2">
         <v>98.6</v>
@@ -2240,7 +2240,7 @@
         <v>2006</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
         <v>98.2</v>
@@ -2281,7 +2281,7 @@
         <v>2006</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2">
         <v>97.7</v>
@@ -2322,7 +2322,7 @@
         <v>2006</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C47" s="2">
         <v>98.7</v>
@@ -2363,7 +2363,7 @@
         <v>2006</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2">
         <v>99.2</v>
@@ -2404,7 +2404,7 @@
         <v>2006</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2">
         <v>97.9</v>
@@ -2445,7 +2445,7 @@
         <v>2006</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2">
         <v>98.6</v>
@@ -2486,7 +2486,7 @@
         <v>2006</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2">
         <v>99</v>
@@ -2527,7 +2527,7 @@
         <v>2006</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2">
         <v>98.8</v>
@@ -2568,7 +2568,7 @@
         <v>2006</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2">
         <v>97</v>
@@ -2609,7 +2609,7 @@
         <v>2006</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2">
         <v>98.6</v>
@@ -2650,7 +2650,7 @@
         <v>2006</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2">
         <v>97.4</v>
@@ -2691,7 +2691,7 @@
         <v>2007</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C56" s="2">
         <v>96.6</v>
@@ -2732,7 +2732,7 @@
         <v>2007</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2">
         <v>95.5</v>
@@ -2773,7 +2773,7 @@
         <v>2007</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2">
         <v>94.6</v>
@@ -2814,7 +2814,7 @@
         <v>2007</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
         <v>97.8</v>
@@ -2855,7 +2855,7 @@
         <v>2007</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
         <v>98.8</v>
@@ -2896,7 +2896,7 @@
         <v>2007</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61" s="2">
         <v>97.6</v>
@@ -2937,7 +2937,7 @@
         <v>2007</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62" s="2">
         <v>98.5</v>
@@ -2978,7 +2978,7 @@
         <v>2007</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
         <v>96.8</v>
@@ -3019,7 +3019,7 @@
         <v>2007</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
         <v>97</v>
@@ -3060,7 +3060,7 @@
         <v>2007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C65" s="2">
         <v>98.4</v>
@@ -3101,7 +3101,7 @@
         <v>2007</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C66" s="2">
         <v>99.6</v>
@@ -3142,7 +3142,7 @@
         <v>2007</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C67" s="2">
         <v>97.5</v>
@@ -3183,7 +3183,7 @@
         <v>2007</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2">
         <v>98.7</v>
@@ -3224,7 +3224,7 @@
         <v>2007</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C69" s="2">
         <v>97.4</v>
@@ -3265,7 +3265,7 @@
         <v>2007</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C70" s="2">
         <v>98.2</v>
@@ -3306,7 +3306,7 @@
         <v>2007</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C71" s="2">
         <v>97</v>
@@ -3347,7 +3347,7 @@
         <v>2007</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2">
         <v>98.7</v>
@@ -3388,7 +3388,7 @@
         <v>2007</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C73" s="2">
         <v>98.1</v>
@@ -3429,7 +3429,7 @@
         <v>2008</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74" s="2">
         <v>96.1</v>
@@ -3470,7 +3470,7 @@
         <v>2008</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
         <v>96.4</v>
@@ -3511,7 +3511,7 @@
         <v>2008</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C76" s="2">
         <v>93.9</v>
@@ -3552,7 +3552,7 @@
         <v>2008</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
         <v>95</v>
@@ -3593,7 +3593,7 @@
         <v>2008</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2">
         <v>99.4</v>
@@ -3634,7 +3634,7 @@
         <v>2008</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2">
         <v>97.4</v>
@@ -3675,7 +3675,7 @@
         <v>2008</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2">
         <v>98.2</v>
@@ -3716,7 +3716,7 @@
         <v>2008</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C81" s="2">
         <v>97.9</v>
@@ -3757,7 +3757,7 @@
         <v>2008</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C82" s="2">
         <v>99.6</v>
@@ -3798,7 +3798,7 @@
         <v>2008</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C83" s="2">
         <v>97.6</v>
@@ -3839,7 +3839,7 @@
         <v>2008</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C84" s="2">
         <v>97.2</v>
@@ -3880,7 +3880,7 @@
         <v>2008</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C85" s="2">
         <v>94</v>
@@ -3921,7 +3921,7 @@
         <v>2008</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2">
         <v>99.1</v>
@@ -3962,7 +3962,7 @@
         <v>2008</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2">
         <v>98.6</v>
@@ -4003,7 +4003,7 @@
         <v>2008</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C88" s="2">
         <v>97.8</v>
@@ -4044,7 +4044,7 @@
         <v>2008</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C89" s="2">
         <v>97.1</v>
@@ -4085,7 +4085,7 @@
         <v>2008</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C90" s="2">
         <v>97.8</v>
@@ -4126,7 +4126,7 @@
         <v>2008</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C91" s="2">
         <v>97.3</v>
@@ -4167,7 +4167,7 @@
         <v>2009</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C92" s="2">
         <v>96</v>
@@ -4208,7 +4208,7 @@
         <v>2009</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C93" s="2">
         <v>95.1</v>
@@ -4249,7 +4249,7 @@
         <v>2009</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C94" s="2">
         <v>93.9</v>
@@ -4290,7 +4290,7 @@
         <v>2009</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C95" s="2">
         <v>97.5</v>
@@ -4331,7 +4331,7 @@
         <v>2009</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C96" s="2">
         <v>98.7</v>
@@ -4372,7 +4372,7 @@
         <v>2009</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C97" s="2">
         <v>96.6</v>
@@ -4413,7 +4413,7 @@
         <v>2009</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C98" s="2">
         <v>98.6</v>
@@ -4454,7 +4454,7 @@
         <v>2009</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C99" s="2">
         <v>99.1</v>
@@ -4495,7 +4495,7 @@
         <v>2009</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C100" s="2">
         <v>98.4</v>
@@ -4536,7 +4536,7 @@
         <v>2009</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C101" s="2">
         <v>97.7</v>
@@ -4577,7 +4577,7 @@
         <v>2009</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C102" s="2">
         <v>97.4</v>
@@ -4618,7 +4618,7 @@
         <v>2009</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C103" s="2">
         <v>95.6</v>
@@ -4659,7 +4659,7 @@
         <v>2009</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C104" s="2">
         <v>98.6</v>
@@ -4700,7 +4700,7 @@
         <v>2009</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C105" s="2">
         <v>98.1</v>
@@ -4741,7 +4741,7 @@
         <v>2009</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C106" s="2">
         <v>97.3</v>
@@ -4782,7 +4782,7 @@
         <v>2009</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C107" s="2">
         <v>96.5</v>
@@ -4823,7 +4823,7 @@
         <v>2009</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C108" s="2">
         <v>97.2</v>
@@ -4864,7 +4864,7 @@
         <v>2009</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C109" s="2">
         <v>97.8</v>
@@ -4905,7 +4905,7 @@
         <v>2010</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2">
         <v>96.1</v>
@@ -4946,7 +4946,7 @@
         <v>2010</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C111" s="2">
         <v>96.6</v>
@@ -4987,7 +4987,7 @@
         <v>2010</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C112" s="2">
         <v>94.4</v>
@@ -5028,7 +5028,7 @@
         <v>2010</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C113" s="2">
         <v>92.9</v>
@@ -5069,7 +5069,7 @@
         <v>2010</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C114" s="2">
         <v>98.6</v>
@@ -5110,7 +5110,7 @@
         <v>2010</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C115" s="2">
         <v>97.3</v>
@@ -5151,7 +5151,7 @@
         <v>2010</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C116" s="2">
         <v>98.6</v>
@@ -5192,7 +5192,7 @@
         <v>2010</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C117" s="2">
         <v>97.1</v>
@@ -5233,7 +5233,7 @@
         <v>2010</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C118" s="2">
         <v>98.9</v>
@@ -5274,7 +5274,7 @@
         <v>2010</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C119" s="2">
         <v>96.8</v>
@@ -5315,7 +5315,7 @@
         <v>2010</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C120" s="2">
         <v>97</v>
@@ -5356,7 +5356,7 @@
         <v>2010</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C121" s="2">
         <v>95.4</v>
@@ -5397,7 +5397,7 @@
         <v>2010</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C122" s="2">
         <v>98.4</v>
@@ -5438,7 +5438,7 @@
         <v>2010</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C123" s="2">
         <v>96.8</v>
@@ -5479,7 +5479,7 @@
         <v>2010</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C124" s="2">
         <v>97.1</v>
@@ -5520,7 +5520,7 @@
         <v>2010</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C125" s="2">
         <v>97.1</v>
@@ -5561,7 +5561,7 @@
         <v>2010</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C126" s="2">
         <v>96.1</v>
@@ -5602,7 +5602,7 @@
         <v>2010</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C127" s="2">
         <v>98.1</v>
@@ -5643,7 +5643,7 @@
         <v>2011</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C128" s="2">
         <v>94.9</v>
@@ -5684,7 +5684,7 @@
         <v>2011</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C129" s="2">
         <v>93.2</v>
@@ -5725,7 +5725,7 @@
         <v>2011</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C130" s="2">
         <v>93.4</v>
@@ -5766,7 +5766,7 @@
         <v>2011</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C131" s="2">
         <v>98.6</v>
@@ -5807,7 +5807,7 @@
         <v>2011</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C132" s="2">
         <v>98.5</v>
@@ -5848,7 +5848,7 @@
         <v>2011</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C133" s="2">
         <v>95.7</v>
@@ -5889,7 +5889,7 @@
         <v>2011</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C134" s="2">
         <v>97.6</v>
@@ -5930,7 +5930,7 @@
         <v>2011</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C135" s="2">
         <v>96.8</v>
@@ -5971,7 +5971,7 @@
         <v>2011</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C136" s="2">
         <v>96.2</v>
@@ -6012,7 +6012,7 @@
         <v>2011</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C137" s="2">
         <v>97</v>
@@ -6053,7 +6053,7 @@
         <v>2011</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C138" s="2">
         <v>98.9</v>
@@ -6094,7 +6094,7 @@
         <v>2011</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C139" s="2">
         <v>93.7</v>
@@ -6135,7 +6135,7 @@
         <v>2011</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C140" s="2">
         <v>98.3</v>
@@ -6176,7 +6176,7 @@
         <v>2011</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C141" s="2">
         <v>97.2</v>
@@ -6217,7 +6217,7 @@
         <v>2011</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C142" s="2">
         <v>95.6</v>
@@ -6258,7 +6258,7 @@
         <v>2011</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C143" s="2">
         <v>97.2</v>
@@ -6299,7 +6299,7 @@
         <v>2011</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C144" s="2">
         <v>97.6</v>
@@ -6340,7 +6340,7 @@
         <v>2011</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C145" s="2">
         <v>94.5</v>
@@ -6381,7 +6381,7 @@
         <v>2012</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C146" s="2">
         <v>94.6</v>
@@ -6422,7 +6422,7 @@
         <v>2012</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C147" s="2">
         <v>94.4</v>
@@ -6463,7 +6463,7 @@
         <v>2012</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C148" s="2">
         <v>93.2</v>
@@ -6504,7 +6504,7 @@
         <v>2012</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C149" s="2">
         <v>94.3</v>
@@ -6545,7 +6545,7 @@
         <v>2012</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C150" s="2">
         <v>96.8</v>
@@ -6586,7 +6586,7 @@
         <v>2012</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C151" s="2">
         <v>95.6</v>
@@ -6627,7 +6627,7 @@
         <v>2012</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C152" s="2">
         <v>96.6</v>
@@ -6668,7 +6668,7 @@
         <v>2012</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C153" s="2">
         <v>96.4</v>
@@ -6709,7 +6709,7 @@
         <v>2012</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C154" s="2">
         <v>97.8</v>
@@ -6750,7 +6750,7 @@
         <v>2012</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C155" s="2">
         <v>96.7</v>
@@ -6791,7 +6791,7 @@
         <v>2012</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C156" s="2">
         <v>95.6</v>
@@ -6832,7 +6832,7 @@
         <v>2012</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C157" s="2">
         <v>92.4</v>
@@ -6873,7 +6873,7 @@
         <v>2012</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C158" s="2">
         <v>96.5</v>
@@ -6914,7 +6914,7 @@
         <v>2012</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C159" s="2">
         <v>97</v>
@@ -6955,7 +6955,7 @@
         <v>2012</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C160" s="2">
         <v>95.3</v>
@@ -6996,7 +6996,7 @@
         <v>2012</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C161" s="2">
         <v>91.9</v>
@@ -7037,7 +7037,7 @@
         <v>2012</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C162" s="2">
         <v>97.8</v>
@@ -7078,7 +7078,7 @@
         <v>2012</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C163" s="2">
         <v>98.1</v>
@@ -7119,7 +7119,7 @@
         <v>2013</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C164" s="2">
         <v>94.8</v>
@@ -7160,7 +7160,7 @@
         <v>2013</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C165" s="2">
         <v>92.5</v>
@@ -7201,7 +7201,7 @@
         <v>2013</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C166" s="2">
         <v>93.8</v>
@@ -7242,7 +7242,7 @@
         <v>2013</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C167" s="2">
         <v>93.6</v>
@@ -7283,7 +7283,7 @@
         <v>2013</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C168" s="2">
         <v>97.2</v>
@@ -7324,7 +7324,7 @@
         <v>2013</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C169" s="2">
         <v>95.7</v>
@@ -7365,7 +7365,7 @@
         <v>2013</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C170" s="2">
         <v>98</v>
@@ -7406,7 +7406,7 @@
         <v>2013</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C171" s="2">
         <v>93.8</v>
@@ -7447,7 +7447,7 @@
         <v>2013</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C172" s="2">
         <v>98.7</v>
@@ -7488,7 +7488,7 @@
         <v>2013</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C173" s="2">
         <v>96.6</v>
@@ -7529,7 +7529,7 @@
         <v>2013</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C174" s="2">
         <v>94.7</v>
@@ -7570,7 +7570,7 @@
         <v>2013</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C175" s="2">
         <v>95</v>
@@ -7611,7 +7611,7 @@
         <v>2013</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C176" s="2">
         <v>97.9</v>
@@ -7652,7 +7652,7 @@
         <v>2013</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C177" s="2">
         <v>98.1</v>
@@ -7693,7 +7693,7 @@
         <v>2013</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C178" s="2">
         <v>95.6</v>
@@ -7734,7 +7734,7 @@
         <v>2013</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C179" s="2">
         <v>93.3</v>
@@ -7775,7 +7775,7 @@
         <v>2013</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C180" s="2">
         <v>96</v>
@@ -7816,7 +7816,7 @@
         <v>2013</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C181" s="2">
         <v>97</v>
@@ -7857,7 +7857,7 @@
         <v>2014</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C182" s="2">
         <v>94.5</v>
@@ -7898,7 +7898,7 @@
         <v>2014</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C183" s="2">
         <v>92.1</v>
@@ -7939,7 +7939,7 @@
         <v>2014</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C184" s="2">
         <v>92.8</v>
@@ -7980,7 +7980,7 @@
         <v>2014</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C185" s="2">
         <v>93.9</v>
@@ -8021,7 +8021,7 @@
         <v>2014</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C186" s="2">
         <v>98.2</v>
@@ -8062,7 +8062,7 @@
         <v>2014</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C187" s="2">
         <v>95.8</v>
@@ -8103,7 +8103,7 @@
         <v>2014</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C188" s="2">
         <v>98.2</v>
@@ -8144,7 +8144,7 @@
         <v>2014</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C189" s="2">
         <v>98.2</v>
@@ -8185,7 +8185,7 @@
         <v>2014</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C190" s="2">
         <v>95.9</v>
@@ -8226,7 +8226,7 @@
         <v>2014</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C191" s="2">
         <v>95.9</v>
@@ -8267,7 +8267,7 @@
         <v>2014</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C192" s="2">
         <v>97.9</v>
@@ -8308,7 +8308,7 @@
         <v>2014</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C193" s="2">
         <v>94.5</v>
@@ -8349,7 +8349,7 @@
         <v>2014</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C194" s="2">
         <v>98.4</v>
@@ -8390,7 +8390,7 @@
         <v>2014</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C195" s="2">
         <v>96.8</v>
@@ -8431,7 +8431,7 @@
         <v>2014</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C196" s="2">
         <v>95.5</v>
@@ -8472,7 +8472,7 @@
         <v>2014</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C197" s="2">
         <v>95.3</v>
@@ -8513,7 +8513,7 @@
         <v>2014</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C198" s="2">
         <v>95.2</v>
@@ -8554,7 +8554,7 @@
         <v>2014</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C199" s="2">
         <v>95</v>
@@ -8595,7 +8595,7 @@
         <v>2015</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C200" s="2">
         <v>94</v>
@@ -8636,7 +8636,7 @@
         <v>2015</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C201" s="2">
         <v>92.9</v>
@@ -8677,7 +8677,7 @@
         <v>2015</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C202" s="2">
         <v>92</v>
@@ -8718,7 +8718,7 @@
         <v>2015</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C203" s="2">
         <v>94.7</v>
@@ -8759,7 +8759,7 @@
         <v>2015</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C204" s="2">
         <v>97.2</v>
@@ -8800,7 +8800,7 @@
         <v>2015</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C205" s="2">
         <v>94.7</v>
@@ -8841,7 +8841,7 @@
         <v>2015</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C206" s="2">
         <v>98.2</v>
@@ -8882,7 +8882,7 @@
         <v>2015</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C207" s="2">
         <v>93.6</v>
@@ -8923,7 +8923,7 @@
         <v>2015</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C208" s="2">
         <v>96.2</v>
@@ -8964,7 +8964,7 @@
         <v>2015</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C209" s="2">
         <v>96.4</v>
@@ -9005,7 +9005,7 @@
         <v>2015</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C210" s="2">
         <v>94.7</v>
@@ -9046,7 +9046,7 @@
         <v>2015</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C211" s="2">
         <v>94</v>
@@ -9087,7 +9087,7 @@
         <v>2015</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C212" s="2">
         <v>97.4</v>
@@ -9128,7 +9128,7 @@
         <v>2015</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C213" s="2">
         <v>97.8</v>
@@ -9169,7 +9169,7 @@
         <v>2015</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C214" s="2">
         <v>95.3</v>
@@ -9210,7 +9210,7 @@
         <v>2015</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C215" s="2">
         <v>91.2</v>
@@ -9251,7 +9251,7 @@
         <v>2015</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C216" s="2">
         <v>96.5</v>
@@ -9292,7 +9292,7 @@
         <v>2015</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C217" s="2">
         <v>95.1</v>
@@ -9333,7 +9333,7 @@
         <v>2016</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C218" s="2">
         <v>93.7</v>
@@ -9374,7 +9374,7 @@
         <v>2016</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C219" s="2">
         <v>91.2</v>
@@ -9415,7 +9415,7 @@
         <v>2016</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C220" s="2">
         <v>91.3</v>
@@ -9456,7 +9456,7 @@
         <v>2016</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C221" s="2">
         <v>92.9</v>
@@ -9497,7 +9497,7 @@
         <v>2016</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C222" s="2">
         <v>98.7</v>
@@ -9538,7 +9538,7 @@
         <v>2016</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C223" s="2">
         <v>95.5</v>
@@ -9579,7 +9579,7 @@
         <v>2016</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C224" s="2">
         <v>99.2</v>
@@ -9620,7 +9620,7 @@
         <v>2016</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C225" s="2">
         <v>96.6</v>
@@ -9661,7 +9661,7 @@
         <v>2016</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C226" s="2">
         <v>95.8</v>
@@ -9702,7 +9702,7 @@
         <v>2016</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C227" s="2">
         <v>97.3</v>
@@ -9743,7 +9743,7 @@
         <v>2016</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C228" s="2">
         <v>96.7</v>
@@ -9784,7 +9784,7 @@
         <v>2016</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C229" s="2">
         <v>92.5</v>
@@ -9825,7 +9825,7 @@
         <v>2016</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C230" s="2">
         <v>95.7</v>
@@ -9866,7 +9866,7 @@
         <v>2016</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C231" s="2">
         <v>97.5</v>
@@ -9907,7 +9907,7 @@
         <v>2016</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C232" s="2">
         <v>96.2</v>
@@ -9948,7 +9948,7 @@
         <v>2016</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C233" s="2">
         <v>92.5</v>
@@ -9989,7 +9989,7 @@
         <v>2016</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C234" s="2">
         <v>96.1</v>
@@ -10030,7 +10030,7 @@
         <v>2016</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C235" s="2">
         <v>93.6</v>
@@ -10071,7 +10071,7 @@
         <v>2017</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C236" s="2">
         <v>93.8</v>
@@ -10112,7 +10112,7 @@
         <v>2017</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C237" s="2">
         <v>92.5</v>
@@ -10153,7 +10153,7 @@
         <v>2017</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C238" s="2">
         <v>92.8</v>
@@ -10194,7 +10194,7 @@
         <v>2017</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C239" s="2">
         <v>89.1</v>
@@ -10235,7 +10235,7 @@
         <v>2017</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C240" s="2">
         <v>96.6</v>
@@ -10276,7 +10276,7 @@
         <v>2017</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C241" s="2">
         <v>95.8</v>
@@ -10317,7 +10317,7 @@
         <v>2017</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C242" s="2">
         <v>98.7</v>
@@ -10358,7 +10358,7 @@
         <v>2017</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C243" s="2">
         <v>97.3</v>
@@ -10399,7 +10399,7 @@
         <v>2017</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C244" s="2">
         <v>95</v>
@@ -10440,7 +10440,7 @@
         <v>2017</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C245" s="2">
         <v>94.9</v>
@@ -10481,7 +10481,7 @@
         <v>2017</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C246" s="2">
         <v>92.7</v>
@@ -10522,7 +10522,7 @@
         <v>2017</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C247" s="2">
         <v>92.8</v>
@@ -10563,7 +10563,7 @@
         <v>2017</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C248" s="2">
         <v>94.8</v>
@@ -10604,7 +10604,7 @@
         <v>2017</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C249" s="2">
         <v>94.8</v>
@@ -10645,7 +10645,7 @@
         <v>2017</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C250" s="2">
         <v>95.3</v>
@@ -10686,7 +10686,7 @@
         <v>2017</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C251" s="2">
         <v>90.9</v>
@@ -10727,7 +10727,7 @@
         <v>2017</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C252" s="2">
         <v>93.8</v>
@@ -10768,7 +10768,7 @@
         <v>2017</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C253" s="2">
         <v>94.7</v>
@@ -10809,7 +10809,7 @@
         <v>2018</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C254" s="2">
         <v>93.3</v>
@@ -10850,7 +10850,7 @@
         <v>2018</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C255" s="2">
         <v>92.3</v>
@@ -10891,7 +10891,7 @@
         <v>2018</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C256" s="2">
         <v>92</v>
@@ -10932,7 +10932,7 @@
         <v>2018</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C257" s="2">
         <v>90.2</v>
@@ -10973,7 +10973,7 @@
         <v>2018</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C258" s="2">
         <v>97.2</v>
@@ -11014,7 +11014,7 @@
         <v>2018</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C259" s="2">
         <v>95</v>
@@ -11055,7 +11055,7 @@
         <v>2018</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C260" s="2">
         <v>97.3</v>
@@ -11096,7 +11096,7 @@
         <v>2018</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C261" s="2">
         <v>96.4</v>
@@ -11137,7 +11137,7 @@
         <v>2018</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C262" s="2">
         <v>95.8</v>
@@ -11178,7 +11178,7 @@
         <v>2018</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C263" s="2">
         <v>95.4</v>
@@ -11219,7 +11219,7 @@
         <v>2018</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C264" s="2">
         <v>91.9</v>
@@ -11260,7 +11260,7 @@
         <v>2018</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C265" s="2">
         <v>92.5</v>
@@ -11301,7 +11301,7 @@
         <v>2018</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C266" s="2">
         <v>94.9</v>
@@ -11342,7 +11342,7 @@
         <v>2018</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C267" s="2">
         <v>95.7</v>
@@ -11383,7 +11383,7 @@
         <v>2018</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C268" s="2">
         <v>94.9</v>
@@ -11424,7 +11424,7 @@
         <v>2018</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C269" s="2">
         <v>92</v>
@@ -11465,7 +11465,7 @@
         <v>2018</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C270" s="2">
         <v>92.9</v>
@@ -11506,7 +11506,7 @@
         <v>2018</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C271" s="2">
         <v>93.2</v>
@@ -11547,7 +11547,7 @@
         <v>2019</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C272" s="2">
         <v>92.1</v>
@@ -11588,7 +11588,7 @@
         <v>2019</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C273" s="2">
         <v>89.5</v>
@@ -11629,7 +11629,7 @@
         <v>2019</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C274" s="2">
         <v>90.7</v>
@@ -11670,7 +11670,7 @@
         <v>2019</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C275" s="2">
         <v>85.7</v>
@@ -11711,7 +11711,7 @@
         <v>2019</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C276" s="2">
         <v>97</v>
@@ -11752,7 +11752,7 @@
         <v>2019</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C277" s="2">
         <v>94.2</v>
@@ -11793,7 +11793,7 @@
         <v>2019</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C278" s="2">
         <v>97.2</v>
@@ -11834,7 +11834,7 @@
         <v>2019</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C279" s="2">
         <v>93.5</v>
@@ -11875,7 +11875,7 @@
         <v>2019</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C280" s="2">
         <v>94.3</v>
@@ -11916,7 +11916,7 @@
         <v>2019</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C281" s="2">
         <v>94.3</v>
@@ -11957,7 +11957,7 @@
         <v>2019</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C282" s="2">
         <v>93.4</v>
@@ -11998,7 +11998,7 @@
         <v>2019</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C283" s="2">
         <v>89.1</v>
@@ -12039,7 +12039,7 @@
         <v>2019</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C284" s="2">
         <v>93.4</v>
@@ -12080,7 +12080,7 @@
         <v>2019</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C285" s="2">
         <v>95.3</v>
@@ -12121,7 +12121,7 @@
         <v>2019</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C286" s="2">
         <v>95.1</v>
@@ -12162,7 +12162,7 @@
         <v>2019</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C287" s="2">
         <v>93.2</v>
@@ -12203,7 +12203,7 @@
         <v>2019</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C288" s="2">
         <v>92.7</v>
@@ -12244,7 +12244,7 @@
         <v>2019</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C289" s="2">
         <v>91.3</v>
@@ -12285,7 +12285,7 @@
         <v>2020</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C290" s="2">
         <v>91.1</v>
@@ -12326,7 +12326,7 @@
         <v>2020</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C291" s="2">
         <v>90.2</v>
@@ -12367,7 +12367,7 @@
         <v>2020</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C292" s="2">
         <v>90.4</v>
@@ -12408,7 +12408,7 @@
         <v>2020</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C293" s="2">
         <v>98.1</v>
@@ -12449,7 +12449,7 @@
         <v>2020</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C294" s="2">
         <v>92.7</v>
@@ -12490,7 +12490,7 @@
         <v>2020</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C295" s="2">
         <v>94.2</v>
@@ -12531,7 +12531,7 @@
         <v>2020</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C296" s="2">
         <v>95.4</v>
@@ -12572,7 +12572,7 @@
         <v>2020</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C297" s="2">
         <v>92.4</v>
@@ -12613,7 +12613,7 @@
         <v>2020</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C298" s="2">
         <v>92.3</v>
@@ -12654,7 +12654,7 @@
         <v>2020</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C299" s="2">
         <v>92.7</v>
@@ -12695,7 +12695,7 @@
         <v>2020</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C300" s="2">
         <v>90.9</v>
@@ -12736,7 +12736,7 @@
         <v>2020</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C301" s="2">
         <v>90.7</v>
@@ -12777,7 +12777,7 @@
         <v>2020</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C302" s="2">
         <v>90.7</v>
@@ -12818,7 +12818,7 @@
         <v>2020</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C303" s="2">
         <v>91.4</v>
@@ -12859,7 +12859,7 @@
         <v>2020</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C304" s="2">
         <v>93.1</v>
@@ -12900,7 +12900,7 @@
         <v>2020</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C305" s="2">
         <v>84.5</v>
@@ -12941,7 +12941,7 @@
         <v>2020</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C306" s="2">
         <v>89.5</v>
@@ -12982,7 +12982,7 @@
         <v>2020</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C307" s="2">
         <v>86.3</v>
@@ -13023,7 +13023,7 @@
         <v>2021</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C308" s="2">
         <v>89.5</v>
@@ -13062,7 +13062,7 @@
         <v>2021</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C309" s="2">
         <v>85.2</v>
@@ -13101,7 +13101,7 @@
         <v>2021</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C310" s="2">
         <v>88.1</v>
@@ -13140,7 +13140,7 @@
         <v>2021</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C311" s="2">
         <v>84.8</v>
@@ -13179,7 +13179,7 @@
         <v>2021</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C312" s="2">
         <v>93.4</v>
@@ -13218,7 +13218,7 @@
         <v>2021</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C313" s="2">
         <v>92.9</v>
@@ -13257,7 +13257,7 @@
         <v>2021</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C314" s="2">
         <v>96.2</v>
@@ -13296,7 +13296,7 @@
         <v>2021</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C315" s="2">
         <v>90.8</v>
@@ -13335,7 +13335,7 @@
         <v>2021</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C316" s="2">
         <v>91.7</v>
@@ -13374,7 +13374,7 @@
         <v>2021</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C317" s="2">
         <v>92</v>
@@ -13413,7 +13413,7 @@
         <v>2021</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C318" s="2">
         <v>91.8</v>
@@ -13452,7 +13452,7 @@
         <v>2021</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C319" s="2">
         <v>88.2</v>
@@ -13491,7 +13491,7 @@
         <v>2021</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C320" s="2">
         <v>93.2</v>
@@ -13530,7 +13530,7 @@
         <v>2021</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C321" s="2">
         <v>91.5</v>
@@ -13569,7 +13569,7 @@
         <v>2021</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C322" s="2">
         <v>92.6</v>
@@ -13608,7 +13608,7 @@
         <v>2021</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C323" s="2">
         <v>91.5</v>
@@ -13647,7 +13647,7 @@
         <v>2021</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C324" s="2">
         <v>90.2</v>
@@ -13686,7 +13686,7 @@
         <v>2021</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C325" s="2">
         <v>86.5</v>
@@ -13725,7 +13725,7 @@
         <v>2023</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C326" s="2">
         <v>83.5</v>
@@ -13766,7 +13766,7 @@
         <v>2023</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C327" s="2">
         <v>82.6</v>
@@ -13807,7 +13807,7 @@
         <v>2023</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C328" s="2">
         <v>77.599999999999994</v>
@@ -13848,7 +13848,7 @@
         <v>2023</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C329" s="2">
         <v>100</v>
@@ -13889,7 +13889,7 @@
         <v>2023</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C330" s="2">
         <v>74.7</v>
@@ -13930,7 +13930,7 @@
         <v>2023</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C331" s="2">
         <v>75.3</v>
@@ -13971,7 +13971,7 @@
         <v>2023</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C332" s="2">
         <v>99.1</v>
@@ -14012,7 +14012,7 @@
         <v>2023</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C333" s="2">
         <v>82.6</v>
@@ -14053,7 +14053,7 @@
         <v>2023</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C334" s="2">
         <v>66.8</v>
@@ -14094,7 +14094,7 @@
         <v>2023</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C335" s="2">
         <v>79.599999999999994</v>
@@ -14135,7 +14135,7 @@
         <v>2023</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C336" s="2">
         <v>80.599999999999994</v>
@@ -14176,7 +14176,7 @@
         <v>2023</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C337" s="2">
         <v>83.1</v>
@@ -14217,7 +14217,7 @@
         <v>2023</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C338" s="2">
         <v>93.6</v>
@@ -14258,7 +14258,7 @@
         <v>2023</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C339" s="2">
         <v>86.5</v>
@@ -14299,7 +14299,7 @@
         <v>2023</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C340" s="2">
         <v>93</v>
@@ -14340,7 +14340,7 @@
         <v>2023</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C341" s="2">
         <v>67.099999999999994</v>
@@ -14381,7 +14381,7 @@
         <v>2023</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C342" s="2">
         <v>77.3</v>
@@ -14422,7 +14422,7 @@
         <v>2023</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C343" s="2">
         <v>88.1</v>
